--- a/vgp_database/Bighorn_Basin_sediments.xlsx
+++ b/vgp_database/Bighorn_Basin_sediments.xlsx
@@ -1574,7 +1574,9 @@
       <c r="AE9" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF9" s="23"/>
+      <c r="AF9" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG9" s="14">
         <v>0.0</v>
       </c>
@@ -1670,7 +1672,9 @@
       <c r="AE10" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG10" s="14">
         <v>1.0</v>
       </c>
@@ -1764,7 +1768,9 @@
       <c r="AE11" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF11" s="23"/>
+      <c r="AF11" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG11" s="14">
         <v>1.0</v>
       </c>
@@ -1858,7 +1864,9 @@
       <c r="AE12" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF12" s="23"/>
+      <c r="AF12" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG12" s="14">
         <v>1.0</v>
       </c>
@@ -1952,7 +1960,9 @@
       <c r="AE13" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF13" s="23"/>
+      <c r="AF13" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG13" s="14">
         <v>1.0</v>
       </c>
@@ -2046,7 +2056,9 @@
       <c r="AE14" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF14" s="23"/>
+      <c r="AF14" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG14" s="14">
         <v>1.0</v>
       </c>
@@ -2140,7 +2152,9 @@
       <c r="AE15" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF15" s="23"/>
+      <c r="AF15" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG15" s="14">
         <v>1.0</v>
       </c>
@@ -2234,7 +2248,9 @@
       <c r="AE16" s="16">
         <v>8.0</v>
       </c>
-      <c r="AF16" s="23"/>
+      <c r="AF16" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG16" s="14">
         <v>1.0</v>
       </c>
@@ -2328,7 +2344,9 @@
       <c r="AE17" s="16">
         <v>9.0</v>
       </c>
-      <c r="AF17" s="23"/>
+      <c r="AF17" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG17" s="14">
         <v>0.0</v>
       </c>
@@ -2426,7 +2444,9 @@
       <c r="AE18" s="16">
         <v>10.0</v>
       </c>
-      <c r="AF18" s="23"/>
+      <c r="AF18" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG18" s="14">
         <v>1.0</v>
       </c>
@@ -2520,7 +2540,9 @@
       <c r="AE19" s="16">
         <v>11.0</v>
       </c>
-      <c r="AF19" s="23"/>
+      <c r="AF19" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG19" s="14">
         <v>0.0</v>
       </c>
@@ -2618,7 +2640,9 @@
       <c r="AE20" s="16">
         <v>12.0</v>
       </c>
-      <c r="AF20" s="23"/>
+      <c r="AF20" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG20" s="14">
         <v>0.0</v>
       </c>
@@ -2716,7 +2740,9 @@
       <c r="AE21" s="16">
         <v>13.0</v>
       </c>
-      <c r="AF21" s="23"/>
+      <c r="AF21" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG21" s="14">
         <v>0.0</v>
       </c>
@@ -2814,7 +2840,9 @@
       <c r="AE22" s="16">
         <v>14.0</v>
       </c>
-      <c r="AF22" s="23"/>
+      <c r="AF22" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG22" s="14">
         <v>0.0</v>
       </c>
@@ -2912,7 +2940,9 @@
       <c r="AE23" s="16">
         <v>15.0</v>
       </c>
-      <c r="AF23" s="23"/>
+      <c r="AF23" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG23" s="14">
         <v>0.0</v>
       </c>
@@ -3010,7 +3040,9 @@
       <c r="AE24" s="16">
         <v>16.0</v>
       </c>
-      <c r="AF24" s="23"/>
+      <c r="AF24" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG24" s="14">
         <v>1.0</v>
       </c>
@@ -3104,7 +3136,9 @@
       <c r="AE25" s="16">
         <v>17.0</v>
       </c>
-      <c r="AF25" s="23"/>
+      <c r="AF25" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG25" s="14">
         <v>1.0</v>
       </c>
@@ -3198,7 +3232,9 @@
       <c r="AE26" s="16">
         <v>18.0</v>
       </c>
-      <c r="AF26" s="23"/>
+      <c r="AF26" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG26" s="14">
         <v>1.0</v>
       </c>
@@ -3292,7 +3328,9 @@
       <c r="AE27" s="16">
         <v>19.0</v>
       </c>
-      <c r="AF27" s="23"/>
+      <c r="AF27" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG27" s="14">
         <v>0.0</v>
       </c>
@@ -3390,7 +3428,9 @@
       <c r="AE28" s="16">
         <v>20.0</v>
       </c>
-      <c r="AF28" s="23"/>
+      <c r="AF28" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG28" s="14">
         <v>1.0</v>
       </c>
@@ -3484,7 +3524,9 @@
       <c r="AE29" s="16">
         <v>21.0</v>
       </c>
-      <c r="AF29" s="23"/>
+      <c r="AF29" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG29" s="14">
         <v>1.0</v>
       </c>
@@ -3578,7 +3620,9 @@
       <c r="AE30" s="16">
         <v>22.0</v>
       </c>
-      <c r="AF30" s="23"/>
+      <c r="AF30" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG30" s="14">
         <v>1.0</v>
       </c>
@@ -3672,7 +3716,9 @@
       <c r="AE31" s="16">
         <v>23.0</v>
       </c>
-      <c r="AF31" s="23"/>
+      <c r="AF31" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG31" s="14">
         <v>1.0</v>
       </c>
@@ -3766,7 +3812,9 @@
       <c r="AE32" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF32" s="23"/>
+      <c r="AF32" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG32" s="14">
         <v>1.0</v>
       </c>
@@ -3860,7 +3908,9 @@
       <c r="AE33" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF33" s="23"/>
+      <c r="AF33" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG33" s="14">
         <v>1.0</v>
       </c>
@@ -3954,7 +4004,9 @@
       <c r="AE34" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF34" s="23"/>
+      <c r="AF34" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG34" s="14">
         <v>1.0</v>
       </c>
@@ -4048,7 +4100,9 @@
       <c r="AE35" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF35" s="23"/>
+      <c r="AF35" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG35" s="14">
         <v>1.0</v>
       </c>
@@ -4142,7 +4196,9 @@
       <c r="AE36" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF36" s="23"/>
+      <c r="AF36" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG36" s="14">
         <v>1.0</v>
       </c>
@@ -4236,7 +4292,9 @@
       <c r="AE37" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF37" s="23"/>
+      <c r="AF37" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG37" s="14">
         <v>1.0</v>
       </c>
@@ -4330,7 +4388,9 @@
       <c r="AE38" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF38" s="23"/>
+      <c r="AF38" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG38" s="14">
         <v>1.0</v>
       </c>
@@ -4424,7 +4484,9 @@
       <c r="AE39" s="16">
         <v>8.0</v>
       </c>
-      <c r="AF39" s="23"/>
+      <c r="AF39" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG39" s="14">
         <v>1.0</v>
       </c>
@@ -4518,7 +4580,9 @@
       <c r="AE40" s="16">
         <v>9.0</v>
       </c>
-      <c r="AF40" s="23"/>
+      <c r="AF40" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG40" s="14">
         <v>1.0</v>
       </c>
@@ -4612,7 +4676,9 @@
       <c r="AE41" s="16">
         <v>10.0</v>
       </c>
-      <c r="AF41" s="23"/>
+      <c r="AF41" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG41" s="14">
         <v>1.0</v>
       </c>
@@ -4706,7 +4772,9 @@
       <c r="AE42" s="16">
         <v>11.0</v>
       </c>
-      <c r="AF42" s="23"/>
+      <c r="AF42" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG42" s="14">
         <v>1.0</v>
       </c>
@@ -4800,7 +4868,9 @@
       <c r="AE43" s="16">
         <v>12.0</v>
       </c>
-      <c r="AF43" s="23"/>
+      <c r="AF43" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG43" s="14">
         <v>1.0</v>
       </c>
@@ -4894,7 +4964,9 @@
       <c r="AE44" s="16">
         <v>13.0</v>
       </c>
-      <c r="AF44" s="23"/>
+      <c r="AF44" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG44" s="14">
         <v>1.0</v>
       </c>
@@ -4988,7 +5060,9 @@
       <c r="AE45" s="16">
         <v>14.0</v>
       </c>
-      <c r="AF45" s="23"/>
+      <c r="AF45" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG45" s="14">
         <v>1.0</v>
       </c>
@@ -5082,7 +5156,9 @@
       <c r="AE46" s="16">
         <v>15.0</v>
       </c>
-      <c r="AF46" s="23"/>
+      <c r="AF46" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG46" s="14">
         <v>0.0</v>
       </c>
@@ -5180,7 +5256,9 @@
       <c r="AE47" s="16">
         <v>16.0</v>
       </c>
-      <c r="AF47" s="23"/>
+      <c r="AF47" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG47" s="14">
         <v>0.0</v>
       </c>
@@ -5278,7 +5356,9 @@
       <c r="AE48" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF48" s="23"/>
+      <c r="AF48" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG48" s="14">
         <v>1.0</v>
       </c>
@@ -5372,7 +5452,9 @@
       <c r="AE49" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF49" s="23"/>
+      <c r="AF49" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG49" s="14">
         <v>1.0</v>
       </c>
@@ -5466,7 +5548,9 @@
       <c r="AE50" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF50" s="23"/>
+      <c r="AF50" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG50" s="14">
         <v>1.0</v>
       </c>
@@ -5560,7 +5644,9 @@
       <c r="AE51" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF51" s="23"/>
+      <c r="AF51" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG51" s="14">
         <v>1.0</v>
       </c>
@@ -5654,7 +5740,9 @@
       <c r="AE52" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF52" s="23"/>
+      <c r="AF52" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG52" s="14">
         <v>0.0</v>
       </c>
@@ -5752,7 +5840,9 @@
       <c r="AE53" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF53" s="23"/>
+      <c r="AF53" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG53" s="14">
         <v>0.0</v>
       </c>
@@ -5850,7 +5940,9 @@
       <c r="AE54" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF54" s="23"/>
+      <c r="AF54" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG54" s="14">
         <v>0.0</v>
       </c>
@@ -5948,7 +6040,9 @@
       <c r="AE55" s="16">
         <v>8.0</v>
       </c>
-      <c r="AF55" s="23"/>
+      <c r="AF55" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG55" s="14">
         <v>1.0</v>
       </c>
@@ -6042,7 +6136,9 @@
       <c r="AE56" s="16">
         <v>9.0</v>
       </c>
-      <c r="AF56" s="23"/>
+      <c r="AF56" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG56" s="14">
         <v>1.0</v>
       </c>
@@ -6136,7 +6232,9 @@
       <c r="AE57" s="16">
         <v>10.0</v>
       </c>
-      <c r="AF57" s="23"/>
+      <c r="AF57" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG57" s="14">
         <v>1.0</v>
       </c>
@@ -6230,7 +6328,9 @@
       <c r="AE58" s="16">
         <v>11.0</v>
       </c>
-      <c r="AF58" s="23"/>
+      <c r="AF58" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG58" s="14">
         <v>0.0</v>
       </c>
@@ -6328,7 +6428,9 @@
       <c r="AE59" s="16">
         <v>12.0</v>
       </c>
-      <c r="AF59" s="23"/>
+      <c r="AF59" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG59" s="14">
         <v>0.0</v>
       </c>
@@ -6426,7 +6528,9 @@
       <c r="AE60" s="16">
         <v>13.0</v>
       </c>
-      <c r="AF60" s="23"/>
+      <c r="AF60" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG60" s="14">
         <v>1.0</v>
       </c>
@@ -6520,7 +6624,9 @@
       <c r="AE61" s="16">
         <v>14.0</v>
       </c>
-      <c r="AF61" s="23"/>
+      <c r="AF61" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG61" s="14">
         <v>1.0</v>
       </c>
@@ -6614,7 +6720,9 @@
       <c r="AE62" s="16">
         <v>15.0</v>
       </c>
-      <c r="AF62" s="23"/>
+      <c r="AF62" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG62" s="14">
         <v>1.0</v>
       </c>
@@ -6708,7 +6816,9 @@
       <c r="AE63" s="16">
         <v>16.0</v>
       </c>
-      <c r="AF63" s="23"/>
+      <c r="AF63" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG63" s="14">
         <v>1.0</v>
       </c>
@@ -6802,7 +6912,9 @@
       <c r="AE64" s="16">
         <v>17.0</v>
       </c>
-      <c r="AF64" s="23"/>
+      <c r="AF64" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG64" s="14">
         <v>1.0</v>
       </c>
@@ -6896,7 +7008,9 @@
       <c r="AE65" s="16">
         <v>18.0</v>
       </c>
-      <c r="AF65" s="23"/>
+      <c r="AF65" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG65" s="14">
         <v>1.0</v>
       </c>
@@ -6990,7 +7104,9 @@
       <c r="AE66" s="16">
         <v>19.0</v>
       </c>
-      <c r="AF66" s="23"/>
+      <c r="AF66" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG66" s="14">
         <v>0.0</v>
       </c>
@@ -7088,7 +7204,9 @@
       <c r="AE67" s="16">
         <v>20.0</v>
       </c>
-      <c r="AF67" s="23"/>
+      <c r="AF67" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG67" s="14">
         <v>1.0</v>
       </c>
@@ -7182,7 +7300,9 @@
       <c r="AE68" s="16">
         <v>21.0</v>
       </c>
-      <c r="AF68" s="23"/>
+      <c r="AF68" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG68" s="14">
         <v>0.0</v>
       </c>
@@ -7280,7 +7400,9 @@
       <c r="AE69" s="16">
         <v>22.0</v>
       </c>
-      <c r="AF69" s="23"/>
+      <c r="AF69" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG69" s="14">
         <v>1.0</v>
       </c>
@@ -7374,7 +7496,9 @@
       <c r="AE70" s="16">
         <v>23.0</v>
       </c>
-      <c r="AF70" s="23"/>
+      <c r="AF70" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG70" s="14">
         <v>0.0</v>
       </c>
@@ -7472,7 +7596,9 @@
       <c r="AE71" s="16">
         <v>24.0</v>
       </c>
-      <c r="AF71" s="23"/>
+      <c r="AF71" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG71" s="14">
         <v>0.0</v>
       </c>
@@ -7570,7 +7696,9 @@
       <c r="AE72" s="16">
         <v>25.0</v>
       </c>
-      <c r="AF72" s="23"/>
+      <c r="AF72" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG72" s="14">
         <v>0.0</v>
       </c>
@@ -7668,7 +7796,9 @@
       <c r="AE73" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF73" s="23"/>
+      <c r="AF73" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG73" s="14">
         <v>1.0</v>
       </c>
@@ -7762,7 +7892,9 @@
       <c r="AE74" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF74" s="23"/>
+      <c r="AF74" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG74" s="14">
         <v>0.0</v>
       </c>
@@ -7860,7 +7992,9 @@
       <c r="AE75" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF75" s="23"/>
+      <c r="AF75" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG75" s="14">
         <v>0.0</v>
       </c>
@@ -7958,7 +8092,9 @@
       <c r="AE76" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF76" s="23"/>
+      <c r="AF76" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG76" s="14">
         <v>0.0</v>
       </c>
@@ -8056,7 +8192,9 @@
       <c r="AE77" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF77" s="23"/>
+      <c r="AF77" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG77" s="14">
         <v>1.0</v>
       </c>
@@ -8150,7 +8288,9 @@
       <c r="AE78" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF78" s="23"/>
+      <c r="AF78" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG78" s="14">
         <v>0.0</v>
       </c>
@@ -8248,7 +8388,9 @@
       <c r="AE79" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF79" s="23"/>
+      <c r="AF79" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG79" s="14">
         <v>1.0</v>
       </c>
@@ -8342,7 +8484,9 @@
       <c r="AE80" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF80" s="23"/>
+      <c r="AF80" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG80" s="14">
         <v>1.0</v>
       </c>
@@ -8436,7 +8580,9 @@
       <c r="AE81" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF81" s="23"/>
+      <c r="AF81" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG81" s="14">
         <v>0.0</v>
       </c>
@@ -8534,7 +8680,9 @@
       <c r="AE82" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF82" s="23"/>
+      <c r="AF82" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG82" s="14">
         <v>1.0</v>
       </c>
@@ -8628,7 +8776,9 @@
       <c r="AE83" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF83" s="23"/>
+      <c r="AF83" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG83" s="14">
         <v>0.0</v>
       </c>
@@ -8726,7 +8876,9 @@
       <c r="AE84" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF84" s="23"/>
+      <c r="AF84" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG84" s="14">
         <v>0.0</v>
       </c>
@@ -8824,7 +8976,9 @@
       <c r="AE85" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF85" s="23"/>
+      <c r="AF85" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG85" s="14">
         <v>0.0</v>
       </c>
@@ -8922,7 +9076,9 @@
       <c r="AE86" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF86" s="23"/>
+      <c r="AF86" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG86" s="14">
         <v>0.0</v>
       </c>
@@ -9020,7 +9176,9 @@
       <c r="AE87" s="16">
         <v>8.0</v>
       </c>
-      <c r="AF87" s="23"/>
+      <c r="AF87" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG87" s="14">
         <v>1.0</v>
       </c>
@@ -9114,7 +9272,9 @@
       <c r="AE88" s="16">
         <v>9.0</v>
       </c>
-      <c r="AF88" s="23"/>
+      <c r="AF88" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG88" s="14">
         <v>1.0</v>
       </c>
@@ -9208,7 +9368,9 @@
       <c r="AE89" s="16">
         <v>10.0</v>
       </c>
-      <c r="AF89" s="23"/>
+      <c r="AF89" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG89" s="14">
         <v>0.0</v>
       </c>
@@ -9306,7 +9468,9 @@
       <c r="AE90" s="16">
         <v>11.0</v>
       </c>
-      <c r="AF90" s="23"/>
+      <c r="AF90" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG90" s="14">
         <v>0.0</v>
       </c>
@@ -9404,7 +9568,9 @@
       <c r="AE91" s="16">
         <v>12.0</v>
       </c>
-      <c r="AF91" s="23"/>
+      <c r="AF91" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG91" s="14">
         <v>0.0</v>
       </c>
@@ -9502,7 +9668,9 @@
       <c r="AE92" s="16">
         <v>13.0</v>
       </c>
-      <c r="AF92" s="23"/>
+      <c r="AF92" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG92" s="14">
         <v>0.0</v>
       </c>
@@ -9600,7 +9768,9 @@
       <c r="AE93" s="16">
         <v>14.0</v>
       </c>
-      <c r="AF93" s="23"/>
+      <c r="AF93" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG93" s="14">
         <v>1.0</v>
       </c>
@@ -9694,7 +9864,9 @@
       <c r="AE94" s="16">
         <v>15.0</v>
       </c>
-      <c r="AF94" s="23"/>
+      <c r="AF94" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG94" s="14">
         <v>1.0</v>
       </c>
@@ -9788,7 +9960,9 @@
       <c r="AE95" s="16">
         <v>1.0</v>
       </c>
-      <c r="AF95" s="23"/>
+      <c r="AF95" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG95" s="14">
         <v>0.0</v>
       </c>
@@ -9886,7 +10060,9 @@
       <c r="AE96" s="16">
         <v>2.0</v>
       </c>
-      <c r="AF96" s="23"/>
+      <c r="AF96" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG96" s="14">
         <v>1.0</v>
       </c>
@@ -9980,7 +10156,9 @@
       <c r="AE97" s="16">
         <v>3.0</v>
       </c>
-      <c r="AF97" s="23"/>
+      <c r="AF97" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG97" s="14">
         <v>1.0</v>
       </c>
@@ -10074,7 +10252,9 @@
       <c r="AE98" s="16">
         <v>4.0</v>
       </c>
-      <c r="AF98" s="23"/>
+      <c r="AF98" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG98" s="14">
         <v>1.0</v>
       </c>
@@ -10168,7 +10348,9 @@
       <c r="AE99" s="16">
         <v>5.0</v>
       </c>
-      <c r="AF99" s="23"/>
+      <c r="AF99" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG99" s="14">
         <v>1.0</v>
       </c>
@@ -10262,7 +10444,9 @@
       <c r="AE100" s="16">
         <v>6.0</v>
       </c>
-      <c r="AF100" s="23"/>
+      <c r="AF100" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG100" s="14">
         <v>1.0</v>
       </c>
@@ -10356,7 +10540,9 @@
       <c r="AE101" s="16">
         <v>7.0</v>
       </c>
-      <c r="AF101" s="23"/>
+      <c r="AF101" s="14">
+        <v>0.0</v>
+      </c>
       <c r="AG101" s="14">
         <v>1.0</v>
       </c>
